--- a/va_facility_data_2025-02-20/Jasper VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jasper%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jasper VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jasper%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R062c2da35de1403a8c2c6e2f5907ffc3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R35eddb692d1c422bb7e7e2fcf60e9f46"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R56e117a5284541e4a170555fcf911562"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ref725ea3621c4b12bf20aae4e58e678c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf70676ab4ad740748b1520a51755beec"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra9607ff19b8649d99ebec070561b6581"/>
   </x:sheets>
 </x:workbook>
 </file>
